--- a/Results/Categorization/plsa-partial-ner-elmo-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-elmo-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1790">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
@@ -4075,10 +4075,10 @@
     <t>AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE|FOOD|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
@@ -4117,12 +4117,18 @@
     <t>FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
@@ -4144,232 +4150,232 @@
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|FOOD</t>
+    <t>FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
@@ -4381,9 +4387,6 @@
     <t>SERVICE|FOOD|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>place|rude|staff|like</t>
   </si>
   <si>
@@ -4396,7 +4399,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4447,7 +4450,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4468,10 +4471,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4534,7 +4537,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4546,6 +4549,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4591,10 +4597,10 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>price|$8.00...just</t>
+    <t>moules|lobster|ravioli</t>
+  </si>
+  <si>
+    <t>price|$8.00!-</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4624,9 +4630,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4639,7 +4642,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4660,7 +4663,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4669,6 +4672,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4684,13 +4690,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4708,7 +4717,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4717,7 +4729,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4729,7 +4741,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18</t>
+    <t>food|menu|$18!-</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4738,237 +4750,240 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6</t>
+    <t>price|reasonable|dish|$3-6!-</t>
   </si>
   <si>
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>like|$7!-</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though|$24!-</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>great|$10!-</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine|$70+</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>like|$7)</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though|$24</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>great|$10.</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -4984,7 +4999,7 @@
     <t>garden|area|herb|garden</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>nice|wait</t>
@@ -4996,22 +5011,19 @@
     <t>price|pizza|even</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>place|great</t>
   </si>
   <si>
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like</t>
+    <t>great|like|100 dollar!-</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5023,13 +5035,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>staff|wait|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5077,9 +5089,6 @@
     <t>place|great|great|price|food|decor</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>great|good|price|food|wine|reasonable</t>
   </si>
   <si>
@@ -5092,7 +5101,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5101,7 +5110,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -5110,7 +5119,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -5131,16 +5140,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60</t>
+    <t>good|though|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5155,19 +5164,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5191,10 +5200,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500</t>
+    <t>service|price|dish|$10!-</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5206,19 +5215,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5227,13 +5233,13 @@
     <t>would|dinner</t>
   </si>
   <si>
-    <t>restaurant|never|money.</t>
-  </si>
-  <si>
-    <t>place|price|restaurant|would|$25),</t>
-  </si>
-  <si>
-    <t>place|food|$</t>
+    <t>restaurant|never</t>
+  </si>
+  <si>
+    <t>place|price|restaurant|would|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5242,34 +5248,37 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>menu|$29</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>menu|$29!-</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500</t>
-  </si>
-  <si>
-    <t>service|great|good</t>
+    <t>service|rude|even|well|$500!-</t>
+  </si>
+  <si>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24</t>
+    <t>restaurant|never|$24!-</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5781,10 +5790,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H2" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5810,7 +5819,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5833,10 +5842,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H4" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5859,10 +5868,10 @@
         <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H5" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5885,10 +5894,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H6" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5911,10 +5920,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H7" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5937,10 +5946,10 @@
         <v>1278</v>
       </c>
       <c r="G8" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H8" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5963,10 +5972,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H9" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5989,10 +5998,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H10" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6015,10 +6024,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H11" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6044,7 +6053,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6067,10 +6076,10 @@
         <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H13" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6093,10 +6102,10 @@
         <v>1339</v>
       </c>
       <c r="G14" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H14" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6119,10 +6128,10 @@
         <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H15" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6145,10 +6154,10 @@
         <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H16" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6171,10 +6180,10 @@
         <v>1339</v>
       </c>
       <c r="G17" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H17" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6197,10 +6206,10 @@
         <v>1341</v>
       </c>
       <c r="G18" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H18" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6226,7 +6235,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6249,10 +6258,10 @@
         <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H20" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6278,7 +6287,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6304,7 +6313,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6327,10 +6336,10 @@
         <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H23" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6353,10 +6362,10 @@
         <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H24" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6382,7 +6391,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6408,7 +6417,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6434,7 +6443,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6457,10 +6466,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H28" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6483,10 +6492,10 @@
         <v>1347</v>
       </c>
       <c r="G29" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H29" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6509,10 +6518,10 @@
         <v>1348</v>
       </c>
       <c r="G30" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H30" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6535,10 +6544,10 @@
         <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H31" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6561,10 +6570,10 @@
         <v>1349</v>
       </c>
       <c r="G32" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H32" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6587,10 +6596,10 @@
         <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H33" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6613,10 +6622,10 @@
         <v>1350</v>
       </c>
       <c r="G34" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H34" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6639,10 +6648,10 @@
         <v>1278</v>
       </c>
       <c r="G35" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H35" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6665,10 +6674,10 @@
         <v>1351</v>
       </c>
       <c r="G36" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H36" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6691,10 +6700,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H37" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6717,10 +6726,10 @@
         <v>1339</v>
       </c>
       <c r="G38" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H38" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6743,10 +6752,10 @@
         <v>1352</v>
       </c>
       <c r="G39" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H39" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6769,10 +6778,10 @@
         <v>1353</v>
       </c>
       <c r="G40" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H40" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6795,10 +6804,10 @@
         <v>1354</v>
       </c>
       <c r="G41" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H41" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6821,10 +6830,10 @@
         <v>1355</v>
       </c>
       <c r="G42" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H42" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6847,10 +6856,10 @@
         <v>1356</v>
       </c>
       <c r="G43" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H43" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6876,7 +6885,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6902,7 +6911,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6928,7 +6937,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6951,10 +6960,10 @@
         <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H47" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6977,10 +6986,10 @@
         <v>1339</v>
       </c>
       <c r="G48" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H48" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7003,10 +7012,10 @@
         <v>1357</v>
       </c>
       <c r="G49" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H49" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7029,10 +7038,10 @@
         <v>1278</v>
       </c>
       <c r="G50" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H50" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7055,10 +7064,10 @@
         <v>1358</v>
       </c>
       <c r="G51" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H51" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7081,10 +7090,10 @@
         <v>1355</v>
       </c>
       <c r="G52" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H52" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7107,10 +7116,10 @@
         <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H53" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7133,10 +7142,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H54" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7159,10 +7168,10 @@
         <v>1359</v>
       </c>
       <c r="G55" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H55" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7185,10 +7194,10 @@
         <v>1360</v>
       </c>
       <c r="G56" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H56" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7211,10 +7220,10 @@
         <v>1361</v>
       </c>
       <c r="G57" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H57" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7237,10 +7246,10 @@
         <v>1362</v>
       </c>
       <c r="G58" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H58" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7263,10 +7272,10 @@
         <v>1363</v>
       </c>
       <c r="G59" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H59" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7289,10 +7298,10 @@
         <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H60" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7318,7 +7327,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7341,10 +7350,10 @@
         <v>1364</v>
       </c>
       <c r="G62" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H62" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7367,10 +7376,10 @@
         <v>1365</v>
       </c>
       <c r="G63" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H63" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7393,10 +7402,10 @@
         <v>1366</v>
       </c>
       <c r="G64" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H64" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7419,10 +7428,10 @@
         <v>1341</v>
       </c>
       <c r="G65" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H65" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7445,10 +7454,10 @@
         <v>1365</v>
       </c>
       <c r="G66" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H66" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7471,10 +7480,10 @@
         <v>1339</v>
       </c>
       <c r="G67" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H67" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7500,7 +7509,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7520,13 +7529,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
       <c r="G69" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H69" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7549,10 +7558,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H70" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7578,7 +7587,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7598,13 +7607,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G72" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H72" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7624,13 +7633,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G73" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H73" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7653,10 +7662,10 @@
         <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H74" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7682,7 +7691,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7702,13 +7711,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1370</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1511</v>
       </c>
       <c r="H76" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7731,10 +7740,10 @@
         <v>1278</v>
       </c>
       <c r="G77" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H77" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7754,13 +7763,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G78" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="H78" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7783,10 +7792,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="H79" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7809,10 +7818,10 @@
         <v>1355</v>
       </c>
       <c r="G80" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H80" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7835,10 +7844,10 @@
         <v>1355</v>
       </c>
       <c r="G81" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="H81" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7858,13 +7867,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G82" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H82" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7890,7 +7899,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7916,7 +7925,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7939,10 +7948,10 @@
         <v>1278</v>
       </c>
       <c r="G85" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H85" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7965,10 +7974,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="H86" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7988,13 +7997,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G87" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="H87" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8017,10 +8026,10 @@
         <v>1351</v>
       </c>
       <c r="G88" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H88" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8043,10 +8052,10 @@
         <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H89" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8072,7 +8081,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8092,13 +8101,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G91" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="H91" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8121,10 +8130,10 @@
         <v>1355</v>
       </c>
       <c r="G92" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="H92" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8147,10 +8156,10 @@
         <v>1357</v>
       </c>
       <c r="G93" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="H93" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8173,10 +8182,10 @@
         <v>1352</v>
       </c>
       <c r="G94" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H94" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8199,10 +8208,10 @@
         <v>1348</v>
       </c>
       <c r="G95" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="H95" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8225,10 +8234,10 @@
         <v>1278</v>
       </c>
       <c r="G96" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="H96" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8248,13 +8257,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1339</v>
+        <v>1355</v>
       </c>
       <c r="G97" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="H97" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8277,10 +8286,10 @@
         <v>1285</v>
       </c>
       <c r="G98" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H98" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8303,10 +8312,10 @@
         <v>1349</v>
       </c>
       <c r="G99" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="H99" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8326,13 +8335,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G100" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="H100" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8355,10 +8364,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H101" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8378,13 +8387,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G102" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="H102" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8410,7 +8419,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8433,10 +8442,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="H104" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8462,7 +8471,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8482,13 +8491,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G106" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="H106" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8508,13 +8517,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G107" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="H107" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8534,13 +8543,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G108" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="H108" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8563,10 +8572,10 @@
         <v>1285</v>
       </c>
       <c r="G109" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H109" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8589,10 +8598,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="H110" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8615,10 +8624,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H111" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8641,10 +8650,10 @@
         <v>1355</v>
       </c>
       <c r="G112" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="H112" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8664,13 +8673,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1376</v>
+        <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>1536</v>
+        <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8696,7 +8705,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8716,13 +8725,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G115" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H115" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8745,10 +8754,10 @@
         <v>1355</v>
       </c>
       <c r="G116" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H116" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8771,10 +8780,10 @@
         <v>1355</v>
       </c>
       <c r="G117" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H117" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8794,13 +8803,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G118" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H118" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8820,13 +8829,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="G119" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H119" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8852,7 +8861,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8878,7 +8887,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8904,7 +8913,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8930,7 +8939,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8953,10 +8962,10 @@
         <v>1339</v>
       </c>
       <c r="G124" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H124" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8979,10 +8988,10 @@
         <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H125" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9008,7 +9017,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9031,10 +9040,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H127" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9057,10 +9066,10 @@
         <v>1365</v>
       </c>
       <c r="G128" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H128" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9083,10 +9092,10 @@
         <v>1357</v>
       </c>
       <c r="G129" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H129" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9109,10 +9118,10 @@
         <v>1355</v>
       </c>
       <c r="G130" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H130" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9132,13 +9141,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G131" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H131" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9158,13 +9167,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H132" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9187,10 +9196,10 @@
         <v>1355</v>
       </c>
       <c r="G133" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H133" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9210,13 +9219,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G134" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H134" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9236,13 +9245,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1285</v>
+        <v>1371</v>
       </c>
       <c r="G135" t="s">
-        <v>1065</v>
+        <v>1552</v>
       </c>
       <c r="H135" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9265,10 +9274,10 @@
         <v>1278</v>
       </c>
       <c r="G136" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H136" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9291,10 +9300,10 @@
         <v>1355</v>
       </c>
       <c r="G137" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="H137" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9314,13 +9323,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G138" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="H138" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9343,10 +9352,10 @@
         <v>1379</v>
       </c>
       <c r="G139" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="H139" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9369,10 +9378,10 @@
         <v>1355</v>
       </c>
       <c r="G140" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="H140" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9398,7 +9407,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9418,13 +9427,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G142" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="H142" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9447,10 +9456,10 @@
         <v>1351</v>
       </c>
       <c r="G143" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H143" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9470,13 +9479,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="G144" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="H144" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9496,13 +9505,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>1559</v>
       </c>
       <c r="H145" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9525,10 +9534,10 @@
         <v>1351</v>
       </c>
       <c r="G146" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H146" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9554,7 +9563,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9577,10 +9586,10 @@
         <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="H148" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9600,13 +9609,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G149" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="H149" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9629,10 +9638,10 @@
         <v>1342</v>
       </c>
       <c r="G150" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="H150" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9655,10 +9664,10 @@
         <v>1380</v>
       </c>
       <c r="G151" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="H151" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9681,10 +9690,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H152" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9707,10 +9716,10 @@
         <v>1381</v>
       </c>
       <c r="G153" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="H153" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9733,10 +9742,10 @@
         <v>1355</v>
       </c>
       <c r="G154" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="H154" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9756,13 +9765,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1285</v>
+        <v>1371</v>
       </c>
       <c r="G155" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="H155" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9782,13 +9791,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1561</v>
+        <v>1568</v>
       </c>
       <c r="H156" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9811,10 +9820,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H157" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9837,10 +9846,10 @@
         <v>1278</v>
       </c>
       <c r="G158" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H158" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9860,13 +9869,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G159" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="H159" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9886,13 +9895,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G160" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="H160" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9911,8 +9920,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9932,13 +9947,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1371</v>
+        <v>1382</v>
       </c>
       <c r="G162" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="H162" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9964,7 +9979,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9987,10 +10002,10 @@
         <v>1339</v>
       </c>
       <c r="G164" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="H164" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10010,13 +10025,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G165" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="H165" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10036,13 +10051,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G166" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="H166" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10062,13 +10077,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G167" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="H167" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10088,13 +10103,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G168" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="H168" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10114,13 +10129,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G169" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="H169" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10140,13 +10155,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G170" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="H170" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10166,13 +10181,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G171" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="H171" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10192,13 +10207,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="H172" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10221,10 +10236,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="H173" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10247,10 +10262,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H174" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10270,13 +10285,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G175" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="H175" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10296,13 +10311,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G176" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="H176" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10325,10 +10340,10 @@
         <v>1348</v>
       </c>
       <c r="G177" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="H177" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10348,13 +10363,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G178" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="H178" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10374,13 +10389,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G179" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="H179" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10400,13 +10415,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G180" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="H180" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10426,13 +10441,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G181" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="H181" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10458,7 +10473,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10481,10 +10496,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H183" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10504,13 +10519,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="H184" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10533,10 +10548,10 @@
         <v>1365</v>
       </c>
       <c r="G185" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H185" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10556,13 +10571,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G186" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="H186" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10585,10 +10600,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="H187" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10614,7 +10629,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10640,7 +10655,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10666,7 +10681,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10689,10 +10704,10 @@
         <v>1339</v>
       </c>
       <c r="G191" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="H191" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10715,10 +10730,10 @@
         <v>1365</v>
       </c>
       <c r="G192" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H192" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10741,10 +10756,10 @@
         <v>1348</v>
       </c>
       <c r="G193" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="H193" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10767,10 +10782,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="H194" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10796,7 +10811,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10819,10 +10834,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H196" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10848,7 +10863,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10868,7 +10883,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10891,10 +10906,10 @@
         <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="H199" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10914,13 +10929,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G200" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="H200" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10940,13 +10955,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G201" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="H201" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10966,13 +10981,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G202" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="H202" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10998,7 +11013,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11018,13 +11033,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G204" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="H204" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11044,13 +11059,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
       <c r="G205" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="H205" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11070,13 +11085,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G206" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="H206" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11102,7 +11117,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11125,10 +11140,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="H208" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11148,13 +11163,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G209" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="H209" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11177,10 +11192,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="H210" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11200,13 +11215,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G211" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="H211" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11226,13 +11241,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G212" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="H212" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11255,10 +11270,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H213" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11281,10 +11296,10 @@
         <v>1348</v>
       </c>
       <c r="G214" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="H214" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11307,10 +11322,10 @@
         <v>1355</v>
       </c>
       <c r="G215" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="H215" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11336,7 +11351,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11356,13 +11371,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G217" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="H217" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11382,13 +11397,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G218" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="H218" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11408,13 +11423,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="G219" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="H219" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11437,10 +11452,10 @@
         <v>1397</v>
       </c>
       <c r="G220" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="H220" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11466,7 +11481,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11489,10 +11504,10 @@
         <v>1345</v>
       </c>
       <c r="G222" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="H222" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11515,10 +11530,10 @@
         <v>1398</v>
       </c>
       <c r="G223" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="H223" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11541,10 +11556,10 @@
         <v>1399</v>
       </c>
       <c r="G224" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="H224" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11570,7 +11585,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11596,7 +11611,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11622,7 +11637,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11642,13 +11657,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G228" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="H228" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11671,10 +11686,10 @@
         <v>1400</v>
       </c>
       <c r="G229" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="H229" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11697,10 +11712,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H230" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11726,7 +11741,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11749,10 +11764,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="H232" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11775,10 +11790,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H233" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11798,13 +11813,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G234" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="H234" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11827,10 +11842,10 @@
         <v>1342</v>
       </c>
       <c r="G235" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="H235" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11853,10 +11868,10 @@
         <v>1401</v>
       </c>
       <c r="G236" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="H236" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11879,10 +11894,10 @@
         <v>1365</v>
       </c>
       <c r="G237" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="H237" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11905,10 +11920,10 @@
         <v>1402</v>
       </c>
       <c r="G238" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="H238" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11934,7 +11949,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11957,10 +11972,10 @@
         <v>1403</v>
       </c>
       <c r="G240" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="H240" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11980,13 +11995,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G241" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="H241" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12009,10 +12024,10 @@
         <v>1351</v>
       </c>
       <c r="G242" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H242" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12035,10 +12050,10 @@
         <v>1345</v>
       </c>
       <c r="G243" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H243" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12058,13 +12073,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G244" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="H244" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12087,10 +12102,10 @@
         <v>1404</v>
       </c>
       <c r="G245" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="H245" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12116,7 +12131,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12139,10 +12154,10 @@
         <v>1345</v>
       </c>
       <c r="G247" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="H247" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12168,7 +12183,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12191,10 +12206,10 @@
         <v>1405</v>
       </c>
       <c r="G249" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="H249" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12217,10 +12232,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="H250" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12243,10 +12258,10 @@
         <v>1406</v>
       </c>
       <c r="G251" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="H251" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12269,10 +12284,10 @@
         <v>1407</v>
       </c>
       <c r="G252" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="H252" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12295,10 +12310,10 @@
         <v>1365</v>
       </c>
       <c r="G253" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="H253" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12324,7 +12339,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12347,10 +12362,10 @@
         <v>1339</v>
       </c>
       <c r="G255" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="H255" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12373,10 +12388,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H256" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12399,10 +12414,10 @@
         <v>1408</v>
       </c>
       <c r="G257" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H257" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12425,10 +12440,10 @@
         <v>1349</v>
       </c>
       <c r="G258" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="H258" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12454,7 +12469,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12477,10 +12492,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H260" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12503,10 +12518,10 @@
         <v>1401</v>
       </c>
       <c r="G261" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="H261" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12532,7 +12547,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12552,13 +12567,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G263" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="H263" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12581,10 +12596,10 @@
         <v>1409</v>
       </c>
       <c r="G264" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="H264" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12607,10 +12622,10 @@
         <v>1348</v>
       </c>
       <c r="G265" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="H265" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12633,10 +12648,10 @@
         <v>1408</v>
       </c>
       <c r="G266" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="H266" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12659,10 +12674,10 @@
         <v>1410</v>
       </c>
       <c r="G267" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="H267" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12685,10 +12700,10 @@
         <v>1411</v>
       </c>
       <c r="G268" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="H268" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12708,13 +12723,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G269" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="H269" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12740,7 +12755,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12763,10 +12778,10 @@
         <v>1346</v>
       </c>
       <c r="G271" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="H271" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12789,10 +12804,10 @@
         <v>1349</v>
       </c>
       <c r="G272" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="H272" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12815,10 +12830,10 @@
         <v>1408</v>
       </c>
       <c r="G273" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="H273" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12841,10 +12856,10 @@
         <v>1352</v>
       </c>
       <c r="G274" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="H274" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12867,10 +12882,10 @@
         <v>1412</v>
       </c>
       <c r="G275" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="H275" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12893,10 +12908,10 @@
         <v>1413</v>
       </c>
       <c r="G276" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="H276" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12919,10 +12934,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H277" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12945,10 +12960,10 @@
         <v>1345</v>
       </c>
       <c r="G278" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="H278" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12971,10 +12986,10 @@
         <v>1414</v>
       </c>
       <c r="G279" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="H279" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13000,7 +13015,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13026,7 +13041,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13049,10 +13064,10 @@
         <v>1415</v>
       </c>
       <c r="G282" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="H282" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13078,7 +13093,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13101,10 +13116,10 @@
         <v>1416</v>
       </c>
       <c r="G284" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="H284" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13127,10 +13142,10 @@
         <v>1351</v>
       </c>
       <c r="G285" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="H285" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13153,10 +13168,10 @@
         <v>1417</v>
       </c>
       <c r="G286" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="H286" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13179,10 +13194,10 @@
         <v>1418</v>
       </c>
       <c r="G287" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="H287" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13205,10 +13220,10 @@
         <v>1278</v>
       </c>
       <c r="G288" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="H288" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13231,10 +13246,10 @@
         <v>1278</v>
       </c>
       <c r="G289" t="s">
-        <v>1576</v>
+        <v>1655</v>
       </c>
       <c r="H289" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13257,10 +13272,10 @@
         <v>1419</v>
       </c>
       <c r="G290" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="H290" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13283,10 +13298,10 @@
         <v>1345</v>
       </c>
       <c r="G291" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="H291" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13309,10 +13324,10 @@
         <v>1345</v>
       </c>
       <c r="G292" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="H292" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13332,13 +13347,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G293" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="H293" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13358,13 +13373,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G294" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="H294" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13390,7 +13405,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13413,10 +13428,10 @@
         <v>1365</v>
       </c>
       <c r="G296" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H296" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13439,10 +13454,10 @@
         <v>1420</v>
       </c>
       <c r="G297" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="H297" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13465,10 +13480,10 @@
         <v>1421</v>
       </c>
       <c r="G298" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="H298" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13494,7 +13509,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13514,13 +13529,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G300" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="H300" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13543,10 +13558,10 @@
         <v>1356</v>
       </c>
       <c r="G301" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="H301" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13569,10 +13584,10 @@
         <v>1422</v>
       </c>
       <c r="G302" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="H302" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13592,13 +13607,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1341</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1660</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13624,7 +13639,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13650,7 +13665,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13673,10 +13688,10 @@
         <v>1345</v>
       </c>
       <c r="G306" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="H306" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13702,7 +13717,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13725,10 +13740,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H308" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13754,7 +13769,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13780,7 +13795,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13806,7 +13821,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13826,13 +13841,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G312" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="H312" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13858,7 +13873,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13884,7 +13899,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13904,13 +13919,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G315" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="H315" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13930,13 +13945,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1383</v>
+        <v>1424</v>
       </c>
       <c r="G316" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="H316" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13959,10 +13974,10 @@
         <v>1351</v>
       </c>
       <c r="G317" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H317" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13985,10 +14000,10 @@
         <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H318" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14007,8 +14022,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14031,10 +14052,10 @@
         <v>1401</v>
       </c>
       <c r="G320" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="H320" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14054,13 +14075,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1376</v>
+        <v>1425</v>
       </c>
       <c r="G321" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="H321" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14083,10 +14104,10 @@
         <v>1349</v>
       </c>
       <c r="G322" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="H322" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14109,10 +14130,10 @@
         <v>1345</v>
       </c>
       <c r="G323" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="H323" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14135,10 +14156,10 @@
         <v>1408</v>
       </c>
       <c r="G324" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="H324" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14164,7 +14185,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14190,7 +14211,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14210,13 +14231,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="G327" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="H327" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14236,13 +14257,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G328" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="H328" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14265,10 +14286,10 @@
         <v>1425</v>
       </c>
       <c r="G329" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="H329" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14291,10 +14312,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H330" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14314,13 +14335,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="G331" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="H331" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14343,10 +14364,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H332" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14366,13 +14387,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G333" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="H333" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14398,7 +14419,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14418,13 +14439,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="G335" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="H335" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14444,13 +14465,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G336" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="H336" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14473,10 +14494,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="H337" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14496,13 +14517,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="G338" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="H338" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14522,13 +14543,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="G339" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="H339" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14551,10 +14572,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="H340" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14574,13 +14595,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G341" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="H341" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14603,10 +14624,10 @@
         <v>1365</v>
       </c>
       <c r="G342" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H342" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14626,13 +14647,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="G343" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="H343" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14652,13 +14673,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="G344" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="H344" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14678,13 +14699,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G345" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="H345" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14704,13 +14725,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="G346" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="H346" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14736,7 +14757,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14762,7 +14783,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14788,7 +14809,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14811,10 +14832,10 @@
         <v>1365</v>
       </c>
       <c r="G350" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H350" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14837,10 +14858,10 @@
         <v>1408</v>
       </c>
       <c r="G351" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="H351" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14860,13 +14881,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="G352" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="H352" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14892,7 +14913,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14918,7 +14939,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14938,13 +14959,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G355" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="H355" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14970,7 +14991,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14990,13 +15011,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="G357" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="H357" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15019,10 +15040,10 @@
         <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H358" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15045,10 +15066,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H359" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15074,7 +15095,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15094,13 +15115,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1436</v>
+        <v>1371</v>
       </c>
       <c r="G361" t="s">
-        <v>1687</v>
+        <v>1512</v>
       </c>
       <c r="H361" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15123,10 +15144,10 @@
         <v>1278</v>
       </c>
       <c r="G362" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="H362" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15146,13 +15167,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G363" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="H363" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15175,10 +15196,10 @@
         <v>1349</v>
       </c>
       <c r="G364" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="H364" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15201,10 +15222,10 @@
         <v>1362</v>
       </c>
       <c r="G365" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="H365" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15224,13 +15245,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="G366" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="H366" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15253,10 +15274,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H367" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15276,13 +15297,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G368" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="H368" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15302,13 +15323,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G369" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H369" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15328,13 +15349,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1353</v>
+        <v>1401</v>
       </c>
       <c r="G370" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="H370" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15357,10 +15378,10 @@
         <v>1339</v>
       </c>
       <c r="G371" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="H371" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15383,10 +15404,10 @@
         <v>1356</v>
       </c>
       <c r="G372" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="H372" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15406,13 +15427,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1439</v>
       </c>
       <c r="G373" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="H373" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15432,7 +15453,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15458,7 +15479,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15478,13 +15499,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G376" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="H376" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15507,10 +15528,10 @@
         <v>1418</v>
       </c>
       <c r="G377" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H377" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15530,13 +15551,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G378" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="H378" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15556,13 +15577,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G379" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="H379" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15582,13 +15603,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G380" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="H380" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15611,10 +15632,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H381" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15634,13 +15655,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G382" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="H382" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15660,13 +15681,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G383" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="H383" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15686,13 +15707,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G384" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="H384" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15715,10 +15736,10 @@
         <v>1408</v>
       </c>
       <c r="G385" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="H385" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15738,13 +15759,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G386" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="H386" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15767,10 +15788,10 @@
         <v>1349</v>
       </c>
       <c r="G387" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H387" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15790,13 +15811,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G388" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="H388" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15816,13 +15837,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G389" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="H389" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15845,10 +15866,10 @@
         <v>1349</v>
       </c>
       <c r="G390" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="H390" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15868,13 +15889,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G391" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="H391" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15897,10 +15918,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H392" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15920,13 +15941,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G393" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="H393" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15946,13 +15967,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="G394" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="H394" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15975,10 +15996,10 @@
         <v>1352</v>
       </c>
       <c r="G395" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="H395" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15998,13 +16019,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G396" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="H396" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16024,13 +16045,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G397" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="H397" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16056,7 +16077,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16079,10 +16100,10 @@
         <v>1355</v>
       </c>
       <c r="G399" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="H399" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16105,10 +16126,10 @@
         <v>1348</v>
       </c>
       <c r="G400" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="H400" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16134,7 +16155,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16157,10 +16178,10 @@
         <v>1349</v>
       </c>
       <c r="G402" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="H402" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16180,13 +16201,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G403" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="H403" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16206,13 +16227,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G404" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="H404" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16235,10 +16256,10 @@
         <v>1338</v>
       </c>
       <c r="G405" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="H405" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16264,7 +16285,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16284,13 +16305,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G407" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="H407" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16313,10 +16334,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1576</v>
+        <v>1655</v>
       </c>
       <c r="H408" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16342,7 +16363,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16368,7 +16389,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16388,13 +16409,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="G411" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="H411" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16417,10 +16438,10 @@
         <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H412" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16443,10 +16464,10 @@
         <v>1408</v>
       </c>
       <c r="G413" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="H413" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16466,13 +16487,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="G414" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="H414" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16492,13 +16513,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G415" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="H415" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16521,10 +16542,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H416" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16547,10 +16568,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="H417" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16570,13 +16591,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G418" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="H418" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16599,10 +16620,10 @@
         <v>1408</v>
       </c>
       <c r="G419" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="H419" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16622,13 +16643,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G420" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="H420" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16651,10 +16672,10 @@
         <v>1401</v>
       </c>
       <c r="G421" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="H421" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16677,10 +16698,10 @@
         <v>1408</v>
       </c>
       <c r="G422" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="H422" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16706,7 +16727,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16732,7 +16753,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16755,10 +16776,10 @@
         <v>1401</v>
       </c>
       <c r="G425" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="H425" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16778,13 +16799,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G426" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="H426" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16810,7 +16831,7 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16833,10 +16854,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="H428" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16856,7 +16877,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16876,13 +16897,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="G430" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="H430" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16902,13 +16923,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G431" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="H431" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16934,7 +16955,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16954,13 +16975,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="G433" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="H433" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16983,10 +17004,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="H434" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17006,13 +17027,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="G435" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="H435" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17035,10 +17056,10 @@
         <v>1341</v>
       </c>
       <c r="G436" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="H436" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17057,14 +17078,8 @@
       <c r="E437" t="s">
         <v>1294</v>
       </c>
-      <c r="F437" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1732</v>
-      </c>
       <c r="H437" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17090,7 +17105,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17113,10 +17128,10 @@
         <v>1349</v>
       </c>
       <c r="G439" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="H439" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17136,13 +17151,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G440" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="H440" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17165,10 +17180,10 @@
         <v>1357</v>
       </c>
       <c r="G441" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="H441" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17191,10 +17206,10 @@
         <v>1339</v>
       </c>
       <c r="G442" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="H442" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17214,13 +17229,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1436</v>
+        <v>1371</v>
       </c>
       <c r="G443" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="H443" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17243,10 +17258,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H444" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17266,13 +17281,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="G445" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="H445" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17292,13 +17307,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="G446" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17321,10 +17336,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H447" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17344,13 +17359,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G448" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="H448" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17370,13 +17385,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1436</v>
+        <v>1452</v>
       </c>
       <c r="G449" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="H449" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17402,7 +17417,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17428,7 +17443,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17451,10 +17466,10 @@
         <v>1349</v>
       </c>
       <c r="G452" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="H452" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17474,13 +17489,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="G453" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="H453" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17500,13 +17515,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="G454" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="H454" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17526,13 +17541,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1348</v>
+        <v>1377</v>
       </c>
       <c r="G455" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="H455" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17555,10 +17570,10 @@
         <v>1416</v>
       </c>
       <c r="G456" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="H456" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17578,13 +17593,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G457" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="H457" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17610,7 +17625,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17630,13 +17645,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1455</v>
+        <v>1367</v>
       </c>
       <c r="G459" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="H459" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17659,10 +17674,10 @@
         <v>1341</v>
       </c>
       <c r="G460" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="H460" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17682,13 +17697,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="G461" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="H461" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17714,7 +17729,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17734,13 +17749,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G463" t="s">
-        <v>1611</v>
+        <v>1754</v>
       </c>
       <c r="H463" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/plsa-partial-ner-elmo-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-elmo-money.xlsx
@@ -4450,7 +4450,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4537,7 +4537,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4600,7 +4600,7 @@
     <t>moules|lobster|ravioli</t>
   </si>
   <si>
-    <t>price|$8.00!-</t>
+    <t>price|$8.00</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4741,7 +4741,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18!-</t>
+    <t>food|menu|$18</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4750,7 +4750,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6!-</t>
+    <t>price|reasonable|dish|$3-6</t>
   </si>
   <si>
     <t>great|well</t>
@@ -4807,7 +4807,7 @@
     <t>price|restaurant|wine|menu</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|price|would</t>
@@ -4915,7 +4915,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4936,7 +4936,7 @@
     <t>good|price|though|even|food</t>
   </si>
   <si>
-    <t>good|price|though|$24!-</t>
+    <t>good|price|though|$24</t>
   </si>
   <si>
     <t>special|wait</t>
@@ -4945,7 +4945,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>price|wine</t>
@@ -5023,7 +5023,7 @@
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like|100 dollar!-</t>
+    <t>great|like|100 dollar</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5035,13 +5035,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|$*!-</t>
+    <t>staff|wait|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5140,16 +5140,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60!-</t>
+    <t>good|though|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5164,19 +5164,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5200,10 +5200,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500!-</t>
+    <t>service|price|dish|$10</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5218,13 +5218,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5236,10 +5236,10 @@
     <t>restaurant|never</t>
   </si>
   <si>
-    <t>place|price|restaurant|would|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|price|restaurant|would|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5248,16 +5248,16 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
-  </si>
-  <si>
-    <t>menu|$29!-</t>
+    <t>stone|bowl|$2</t>
+  </si>
+  <si>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500!-</t>
+    <t>service|rude|even|well|$500</t>
   </si>
   <si>
     <t>service|great|good|salad</t>
@@ -5266,13 +5266,13 @@
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24!-</t>
+    <t>restaurant|never|$24</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
